--- a/other/input/2022/summer_2022_wqx_data/Data/SWWTP/TSS 07-26-22 UPDATED FORMAT.xlsx
+++ b/other/input/2022/summer_2022_wqx_data/Data/SWWTP/TSS 07-26-22 UPDATED FORMAT.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Active Projects\Agency Baseline\2022 Agency Baseline\Summer\Data\SWWTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2022/summer_2022_wqx_data/Data/SWWTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AACE7589CBEF1CAE051B0880FDA4A5A920661A14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B542CD1B-BD60-43D6-9690-25486272BF08}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="9150"/>
+    <workbookView xWindow="4275" yWindow="15" windowWidth="23100" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -152,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,18 +215,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,49 +529,50 @@
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -566,10 +580,10 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.38680555555555557</v>
       </c>
       <c r="D3">
@@ -590,10 +604,10 @@
       <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J3" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K3" s="6">
         <v>0.55277777777777781</v>
       </c>
       <c r="L3" t="s">
@@ -607,10 +621,10 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.36527777777777781</v>
       </c>
       <c r="D4">
@@ -631,16 +645,16 @@
       <c r="I4">
         <v>448.3</v>
       </c>
-      <c r="J4" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K4" s="6">
         <v>0.55277777777777781</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -648,10 +662,10 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.36805555555555558</v>
       </c>
       <c r="D5">
@@ -672,16 +686,16 @@
       <c r="I5">
         <v>215.3</v>
       </c>
-      <c r="J5" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="J5" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K5" s="6">
         <v>0.55277777777777803</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -689,10 +703,10 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.38194444444444442</v>
       </c>
       <c r="D6">
@@ -713,16 +727,16 @@
       <c r="I6">
         <v>146</v>
       </c>
-      <c r="J6" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="J6" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K6" s="6">
         <v>0.55277777777777803</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -730,10 +744,10 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.41319444444444442</v>
       </c>
       <c r="D7">
@@ -754,16 +768,16 @@
       <c r="I7">
         <v>1.3</v>
       </c>
-      <c r="J7" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J7" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K7" s="6">
         <v>0.55277777777777803</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -771,10 +785,10 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.43402777777777773</v>
       </c>
       <c r="D8">
@@ -795,16 +809,16 @@
       <c r="I8">
         <v>37</v>
       </c>
-      <c r="J8" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="J8" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K8" s="6">
         <v>0.55277777777777803</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -812,10 +826,10 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.44236111111111115</v>
       </c>
       <c r="D9">
@@ -836,16 +850,16 @@
       <c r="I9">
         <v>25.3</v>
       </c>
-      <c r="J9" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="J9" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K9" s="6">
         <v>0.56180555555555556</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -853,10 +867,10 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C10" s="6">
         <v>0.45833333333333331</v>
       </c>
       <c r="D10">
@@ -877,16 +891,16 @@
       <c r="I10">
         <v>38.299999999999997</v>
       </c>
-      <c r="J10" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="J10" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K10" s="6">
         <v>0.56180555555555556</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -894,10 +908,10 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.45833333333333331</v>
       </c>
       <c r="D11">
@@ -918,16 +932,16 @@
       <c r="I11">
         <v>5.7</v>
       </c>
-      <c r="J11" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J11" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K11" s="6">
         <v>0.561805555555556</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="2" t="s">
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -935,10 +949,10 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C12" s="6">
         <v>0.4375</v>
       </c>
       <c r="D12">
@@ -959,16 +973,16 @@
       <c r="I12">
         <v>24</v>
       </c>
-      <c r="J12" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K12" s="6">
         <v>0.561805555555556</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -976,10 +990,10 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.38541666666666669</v>
       </c>
       <c r="D13">
@@ -1000,16 +1014,16 @@
       <c r="I13">
         <v>7</v>
       </c>
-      <c r="J13" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="J13" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K13" s="6">
         <v>0.561805555555556</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1017,10 +1031,10 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C14" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="D14">
@@ -1041,16 +1055,16 @@
       <c r="I14">
         <v>29.3</v>
       </c>
-      <c r="J14" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="J14" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K14" s="6">
         <v>0.56180555555555556</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="2" t="s">
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1058,10 +1072,10 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.37986111111111115</v>
       </c>
       <c r="D15">
@@ -1082,16 +1096,16 @@
       <c r="I15">
         <v>24.7</v>
       </c>
-      <c r="J15" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K15" s="8">
+      <c r="J15" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K15" s="6">
         <v>0.56666666666666665</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="2" t="s">
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1099,10 +1113,10 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C16" s="6">
         <v>0.42569444444444443</v>
       </c>
       <c r="D16">
@@ -1123,16 +1137,16 @@
       <c r="I16">
         <v>25.3</v>
       </c>
-      <c r="J16" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="J16" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K16" s="6">
         <v>0.56666666666666665</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="2" t="s">
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1140,10 +1154,10 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C17" s="6">
         <v>0.4458333333333333</v>
       </c>
       <c r="D17">
@@ -1164,16 +1178,16 @@
       <c r="I17">
         <v>3.3</v>
       </c>
-      <c r="J17" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="J17" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K17" s="6">
         <v>0.56666666666666698</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="2" t="s">
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1181,10 +1195,10 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C18" s="6">
         <v>0.45</v>
       </c>
       <c r="D18">
@@ -1205,16 +1219,16 @@
       <c r="I18">
         <v>3.3</v>
       </c>
-      <c r="J18" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K18" s="8">
+      <c r="J18" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K18" s="6">
         <v>0.56666666666666698</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1222,10 +1236,10 @@
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C19" s="6">
         <v>0.41180555555555554</v>
       </c>
       <c r="D19">
@@ -1246,16 +1260,16 @@
       <c r="I19">
         <v>19.7</v>
       </c>
-      <c r="J19" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K19" s="8">
+      <c r="J19" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K19" s="6">
         <v>0.56666666666666698</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="2" t="s">
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1263,10 +1277,10 @@
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C20" s="6">
         <v>0.34027777777777773</v>
       </c>
       <c r="D20">
@@ -1287,16 +1301,16 @@
       <c r="I20">
         <v>32</v>
       </c>
-      <c r="J20" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="J20" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K20" s="6">
         <v>0.56666666666666698</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1304,10 +1318,10 @@
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C21" s="6">
         <v>0.35416666666666669</v>
       </c>
       <c r="D21">
@@ -1328,16 +1342,16 @@
       <c r="I21">
         <v>49.8</v>
       </c>
-      <c r="J21" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K21" s="8">
+      <c r="J21" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K21" s="6">
         <v>0.5756944444444444</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1345,10 +1359,10 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C22" s="6">
         <v>0.37916666666666665</v>
       </c>
       <c r="D22">
@@ -1369,16 +1383,16 @@
       <c r="I22">
         <v>3.4</v>
       </c>
-      <c r="J22" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K22" s="8">
+      <c r="J22" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K22" s="6">
         <v>0.5756944444444444</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="2" t="s">
+      <c r="L22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1386,10 +1400,10 @@
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C23" s="6">
         <v>0.43402777777777773</v>
       </c>
       <c r="D23">
@@ -1410,16 +1424,16 @@
       <c r="I23">
         <v>1.8</v>
       </c>
-      <c r="J23" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K23" s="8">
+      <c r="J23" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K23" s="6">
         <v>0.57569444444444395</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="2" t="s">
+      <c r="L23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1427,10 +1441,10 @@
       <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C24" s="6">
         <v>0.39930555555555558</v>
       </c>
       <c r="D24">
@@ -1451,16 +1465,16 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="J24" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K24" s="6">
         <v>0.57569444444444395</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="2" t="s">
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1468,10 +1482,10 @@
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C25" s="6">
         <v>0.4055555555555555</v>
       </c>
       <c r="D25">
@@ -1492,16 +1506,16 @@
       <c r="I25">
         <v>1.6</v>
       </c>
-      <c r="J25" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K25" s="8">
+      <c r="J25" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K25" s="6">
         <v>0.57569444444444395</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="2" t="s">
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1509,10 +1523,10 @@
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="7">
-        <v>44768</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="5">
+        <v>44768</v>
+      </c>
+      <c r="C26" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="D26">
@@ -1533,21 +1547,21 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" s="7">
-        <v>44769</v>
-      </c>
-      <c r="K26" s="8">
+      <c r="J26" s="5">
+        <v>44769</v>
+      </c>
+      <c r="K26" s="6">
         <v>0.57569444444444395</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="2" t="s">
+      <c r="L26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="7"/>
+      <c r="J27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
